--- a/src/WebMarket/WebMarket/App_Data/Producers.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Producers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Producer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>Vimar</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Vprotector</t>
+  </si>
+  <si>
+    <t>Energohit</t>
+  </si>
+  <si>
+    <t>BBbattery</t>
+  </si>
+  <si>
+    <t>Volt</t>
   </si>
 </sst>
 </file>
@@ -102,6 +117,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -150,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,128 +412,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/WebMarket/WebMarket/App_Data/Producers.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Producers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Volt</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>http://luxeon.ua/</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Під торговою маркою LUXEON з 2000 року виробляється широкий спектр обладнання - побутові та промислові системи стабілізації напруги і безперебійного живлення, комплектуючі для персональних комп'ютерів, акустичні системи. З весни 2008 року на прилавках магазинів з'явилася побутова техніка, вироблена під ТМ LUXEON - телевізори, ДВД- програвачі, СВЧ - печі, холодильники і кондиціонери.&lt;br/&gt;Роблячи вибір на користь товарів під ТМ «LUXEON» Ви можете бути впевнені, що отримаєте якісну і надійну техніку, яка завжди буде відповідати Вашим очікуванням!</t>
   </si>
 </sst>
 </file>
@@ -412,19 +424,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" activeCellId="1" sqref="E3 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +451,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -449,10 +469,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -463,10 +489,10 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -477,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -491,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -505,10 +531,10 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -519,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -533,10 +559,10 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -547,10 +573,10 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -561,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>8.15</v>
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>
